--- a/Project5 zelf beoordeling/Project5 Beoordeling Hidde Lubbers.xlsx
+++ b/Project5 zelf beoordeling/Project5 Beoordeling Hidde Lubbers.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hidde\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hidde\Project5\Project5 zelf beoordeling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD3D32AE-AB78-4F5E-B3B0-E8EBF57AC4B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C15A2318-850D-45DC-B262-B29C6530532A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
   <si>
     <t>Groep1</t>
   </si>
@@ -848,10 +848,10 @@
   <dimension ref="A1:G97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E93" sqref="E93"/>
+      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -959,7 +959,9 @@
       <c r="C10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="7"/>
+      <c r="E10" s="7" t="s">
+        <v>88</v>
+      </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
     </row>
